--- a/HW1-1/Samples.xlsx
+++ b/HW1-1/Samples.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei Zhou\Documents\读研\IoT\HW1-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jzhou1\OneDrive - KNEX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF860FA-EDFD-4459-9DEA-012A8E3317A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25AC2FD-E799-494B-8A8F-42DBB9CA3F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB9911BB-9A9D-411E-B9F8-7F85B2EE5E96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AB9911BB-9A9D-411E-B9F8-7F85B2EE5E96}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CONFIDENCE" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>*3.3/1023</t>
   </si>
@@ -43,14 +44,67 @@
   </si>
   <si>
     <t>/1023*3.3</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Confidence Level(95.0%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -74,18 +128,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -101,7 +180,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -396,19 +475,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBF7F62-3037-4721-8A60-2034F68E3503}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>188509.1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>188475.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>32.548402506837817</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.75718777944003657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>188477</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>188477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>188477</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>188477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>178.27494263752769</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.1472882706655447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>31781.955172413789</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17.200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>29.99948306434883</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>29.051588707624589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.4771570685784354</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-5.3515196992900158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>977</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>188476</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <v>188454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>189453</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>188477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5655273</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5654274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>66.56895761105109</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.5486228911714024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15C9E1-1F31-4532-ABEB-27C63B320F29}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -419,7 +728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>188477</v>
       </c>
@@ -427,7 +736,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>188476</v>
       </c>
@@ -435,7 +744,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>188477</v>
       </c>
@@ -443,7 +752,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>188477</v>
       </c>
@@ -451,7 +760,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>188476</v>
       </c>
@@ -459,7 +768,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>188477</v>
       </c>
@@ -467,7 +776,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>188476</v>
       </c>
@@ -475,7 +784,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>188477</v>
       </c>
@@ -483,7 +792,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>188476</v>
       </c>
@@ -491,7 +800,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>188477</v>
       </c>
@@ -499,7 +808,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>188477</v>
       </c>
@@ -507,7 +816,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>188476</v>
       </c>
@@ -515,7 +824,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>188477</v>
       </c>
@@ -523,7 +832,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>188476</v>
       </c>
@@ -531,7 +840,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>188477</v>
       </c>
@@ -539,7 +848,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>188476</v>
       </c>
@@ -547,7 +856,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>188477</v>
       </c>
@@ -555,7 +864,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>188477</v>
       </c>
@@ -563,7 +872,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>188476</v>
       </c>
@@ -571,7 +880,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>188477</v>
       </c>
@@ -579,7 +888,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>189453</v>
       </c>
@@ -587,7 +896,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>188476</v>
       </c>
@@ -595,7 +904,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>188477</v>
       </c>
@@ -603,7 +912,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>188477</v>
       </c>
@@ -611,7 +920,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>188476</v>
       </c>
@@ -619,7 +928,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>188477</v>
       </c>
@@ -627,7 +936,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>188476</v>
       </c>
@@ -635,7 +944,7 @@
         <v>188476</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>188477</v>
       </c>
@@ -643,7 +952,7 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>188476</v>
       </c>
@@ -651,7 +960,7 @@
         <v>188454</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>188476</v>
       </c>
@@ -659,7 +968,10 @@
         <v>188477</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
       <c r="B32">
         <f>AVERAGE(B2:B31)</f>
         <v>188509.1</v>
